--- a/simulation_data/one_step_algorithm/1s_error_level_5_percent_water_60.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_5_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.94889033415062</v>
+        <v>89.94016699313656</v>
       </c>
       <c r="D2" t="n">
-        <v>1.270733772011096</v>
+        <v>1.201836383681658</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.07245924042937</v>
+        <v>89.18648593859287</v>
       </c>
       <c r="D3" t="n">
-        <v>1.245103178957889</v>
+        <v>1.25250334214201</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.94254188219207</v>
+        <v>87.98695344978722</v>
       </c>
       <c r="D4" t="n">
-        <v>1.338378362394906</v>
+        <v>1.236695332315722</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.0879718329081</v>
+        <v>87.14712692161233</v>
       </c>
       <c r="D5" t="n">
-        <v>1.372512953786946</v>
+        <v>1.141268611455211</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.9422052120298</v>
+        <v>86.18124636564042</v>
       </c>
       <c r="D6" t="n">
-        <v>1.177965338137302</v>
+        <v>1.261725295144009</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.90159031127249</v>
+        <v>85.14254358186535</v>
       </c>
       <c r="D7" t="n">
-        <v>1.360212947470065</v>
+        <v>1.351803665665513</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.98717671803587</v>
+        <v>84.00618562749013</v>
       </c>
       <c r="D8" t="n">
-        <v>1.115035491277057</v>
+        <v>1.142259212979781</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.93673224681081</v>
+        <v>82.99074990383302</v>
       </c>
       <c r="D9" t="n">
-        <v>1.520431721124646</v>
+        <v>1.367712528263842</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.05716383748197</v>
+        <v>82.05359358834365</v>
       </c>
       <c r="D10" t="n">
-        <v>1.423977306077345</v>
+        <v>1.247285250238932</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.04943798987371</v>
+        <v>81.0610534339872</v>
       </c>
       <c r="D11" t="n">
-        <v>1.346582217495018</v>
+        <v>1.26798626363407</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.99551882004094</v>
+        <v>79.88526861015769</v>
       </c>
       <c r="D12" t="n">
-        <v>1.235041164053494</v>
+        <v>1.434619182541873</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.14281197092326</v>
+        <v>79.06168262842702</v>
       </c>
       <c r="D13" t="n">
-        <v>1.23889629328072</v>
+        <v>1.280921656301217</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.88764357893847</v>
+        <v>77.92018387812494</v>
       </c>
       <c r="D14" t="n">
-        <v>1.261706945350631</v>
+        <v>1.36179225594018</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.07400126155756</v>
+        <v>76.82339867125407</v>
       </c>
       <c r="D15" t="n">
-        <v>1.229793214358887</v>
+        <v>1.271301446582696</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.03083079911204</v>
+        <v>75.95109447088694</v>
       </c>
       <c r="D16" t="n">
-        <v>1.25549265662188</v>
+        <v>1.275909871618396</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.18011531296382</v>
+        <v>75.14012299489025</v>
       </c>
       <c r="D17" t="n">
-        <v>1.355237336251331</v>
+        <v>1.238673666280218</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.94188900397069</v>
+        <v>73.90692567090649</v>
       </c>
       <c r="D18" t="n">
-        <v>1.206485476968276</v>
+        <v>1.219557780021842</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.87163924482962</v>
+        <v>72.97545092309404</v>
       </c>
       <c r="D19" t="n">
-        <v>1.298585696601913</v>
+        <v>1.428154746762381</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.94007188910813</v>
+        <v>72.0317023447306</v>
       </c>
       <c r="D20" t="n">
-        <v>1.342531382775202</v>
+        <v>1.425490519242151</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.93858506291211</v>
+        <v>71.15546916759638</v>
       </c>
       <c r="D21" t="n">
-        <v>1.397400297470918</v>
+        <v>1.365864153304017</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.9577472550003</v>
+        <v>70.09002054733887</v>
       </c>
       <c r="D22" t="n">
-        <v>1.582729292190831</v>
+        <v>1.418248158647684</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.98525515024981</v>
+        <v>68.92470574787397</v>
       </c>
       <c r="D23" t="n">
-        <v>1.412251467448368</v>
+        <v>1.481914560920125</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.90857490906886</v>
+        <v>67.98038975212938</v>
       </c>
       <c r="D24" t="n">
-        <v>1.4455734327989</v>
+        <v>1.378619247549563</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.82519976576424</v>
+        <v>67.1604802080071</v>
       </c>
       <c r="D25" t="n">
-        <v>1.464507587778769</v>
+        <v>1.545162777717026</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.84700613500266</v>
+        <v>65.90432375339215</v>
       </c>
       <c r="D26" t="n">
-        <v>1.386569864595915</v>
+        <v>1.29742916835678</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.97999421004691</v>
+        <v>64.77913772778676</v>
       </c>
       <c r="D27" t="n">
-        <v>1.557135546166029</v>
+        <v>1.425085759931875</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.73903250557216</v>
+        <v>64.1628716307068</v>
       </c>
       <c r="D28" t="n">
-        <v>1.333187430706005</v>
+        <v>1.597725457154062</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.54017604261671</v>
+        <v>63.05510207210219</v>
       </c>
       <c r="D29" t="n">
-        <v>1.514482223058675</v>
+        <v>1.31279514609941</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.88105295027262</v>
+        <v>61.88826008372346</v>
       </c>
       <c r="D30" t="n">
-        <v>1.435215517520832</v>
+        <v>1.726764507790039</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.84983624327482</v>
+        <v>60.96425323964324</v>
       </c>
       <c r="D31" t="n">
-        <v>1.514117686376757</v>
+        <v>1.439553760453602</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.10940910817927</v>
+        <v>59.74804494359035</v>
       </c>
       <c r="D32" t="n">
-        <v>1.413110997257693</v>
+        <v>1.576800905467531</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.00602589517391</v>
+        <v>58.85722261733745</v>
       </c>
       <c r="D33" t="n">
-        <v>1.493746786531441</v>
+        <v>1.312582312876413</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.92040563898789</v>
+        <v>57.90643181582678</v>
       </c>
       <c r="D34" t="n">
-        <v>1.630740427059153</v>
+        <v>1.369792830416799</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.84090298850444</v>
+        <v>56.97053549181025</v>
       </c>
       <c r="D35" t="n">
-        <v>1.495636999467731</v>
+        <v>1.558028971673789</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.96926513069707</v>
+        <v>56.16468246293942</v>
       </c>
       <c r="D36" t="n">
-        <v>1.609533407617048</v>
+        <v>1.436572346737546</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.96514584233295</v>
+        <v>54.733945319588</v>
       </c>
       <c r="D37" t="n">
-        <v>1.546859567829659</v>
+        <v>1.564319132258873</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.9119191132061</v>
+        <v>53.87835146753724</v>
       </c>
       <c r="D38" t="n">
-        <v>1.464879744767047</v>
+        <v>1.53498362982819</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.98153165203962</v>
+        <v>52.95645959036453</v>
       </c>
       <c r="D39" t="n">
-        <v>1.522683943893614</v>
+        <v>1.554968722886551</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.36145305657523</v>
+        <v>51.96729381734533</v>
       </c>
       <c r="D40" t="n">
-        <v>1.465203592034315</v>
+        <v>1.56447165306698</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.92230405606096</v>
+        <v>51.044678630459</v>
       </c>
       <c r="D41" t="n">
-        <v>1.528847369809109</v>
+        <v>1.503271467911328</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.89257529014845</v>
+        <v>49.99489348164068</v>
       </c>
       <c r="D42" t="n">
-        <v>1.770853392069708</v>
+        <v>1.65939958560557</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.56288483814176</v>
+        <v>48.74036365906282</v>
       </c>
       <c r="D43" t="n">
-        <v>1.369394618730994</v>
+        <v>1.608192289857244</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.86408906175234</v>
+        <v>48.00778107584788</v>
       </c>
       <c r="D44" t="n">
-        <v>1.610443712852462</v>
+        <v>1.530936581448593</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.7565083880515</v>
+        <v>47.09894111933268</v>
       </c>
       <c r="D45" t="n">
-        <v>1.455496386003306</v>
+        <v>1.444932217379029</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.90702801733447</v>
+        <v>45.95877041003696</v>
       </c>
       <c r="D46" t="n">
-        <v>1.638587592917913</v>
+        <v>1.445266952435833</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.90635675409617</v>
+        <v>44.79598502357024</v>
       </c>
       <c r="D47" t="n">
-        <v>1.473648803200694</v>
+        <v>1.900104338343682</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.04344838882354</v>
+        <v>43.96751193870049</v>
       </c>
       <c r="D48" t="n">
-        <v>1.441832609276229</v>
+        <v>1.824540711850024</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.24347250555716</v>
+        <v>43.18717609377163</v>
       </c>
       <c r="D49" t="n">
-        <v>1.720895985357441</v>
+        <v>1.672450499622816</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.08143551268296</v>
+        <v>42.007065461361</v>
       </c>
       <c r="D50" t="n">
-        <v>1.791752712884376</v>
+        <v>1.699574630968554</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.83515963454276</v>
+        <v>41.50503257343792</v>
       </c>
       <c r="D51" t="n">
-        <v>1.776713254321293</v>
+        <v>1.822704593784092</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.00058143654405</v>
+        <v>40.01230380179698</v>
       </c>
       <c r="D52" t="n">
-        <v>1.80385887924689</v>
+        <v>1.539570466606438</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.96184266458436</v>
+        <v>38.9093731911721</v>
       </c>
       <c r="D53" t="n">
-        <v>1.497813696551818</v>
+        <v>1.764641945501597</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.17752562183065</v>
+        <v>38.0499152925104</v>
       </c>
       <c r="D54" t="n">
-        <v>1.523056292175145</v>
+        <v>1.723924248472816</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.14554583722905</v>
+        <v>37.02427026319626</v>
       </c>
       <c r="D55" t="n">
-        <v>1.510911134329834</v>
+        <v>1.766972415133058</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.08651196393993</v>
+        <v>35.75344389759596</v>
       </c>
       <c r="D56" t="n">
-        <v>1.710007081504539</v>
+        <v>1.705134261854858</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.63050582732373</v>
+        <v>34.63211723769737</v>
       </c>
       <c r="D57" t="n">
-        <v>1.652609602053628</v>
+        <v>1.761179111687866</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.37669710469214</v>
+        <v>33.80447999628009</v>
       </c>
       <c r="D58" t="n">
-        <v>1.693666040534158</v>
+        <v>1.858048680025525</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.9461895713635</v>
+        <v>32.94232579209417</v>
       </c>
       <c r="D59" t="n">
-        <v>1.776784413652196</v>
+        <v>1.654761551825948</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.97360635465406</v>
+        <v>31.81886674939414</v>
       </c>
       <c r="D60" t="n">
-        <v>1.632098049491353</v>
+        <v>1.558744257219396</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.11197728180517</v>
+        <v>30.80638310164155</v>
       </c>
       <c r="D61" t="n">
-        <v>1.854138299346564</v>
+        <v>1.53978274896177</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.83767799255812</v>
+        <v>29.78719456691916</v>
       </c>
       <c r="D62" t="n">
-        <v>1.535776158983414</v>
+        <v>1.660002385986286</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.22226823070376</v>
+        <v>28.8424226220269</v>
       </c>
       <c r="D63" t="n">
-        <v>1.786530910761198</v>
+        <v>1.549283229763925</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.04039983235277</v>
+        <v>28.07638285073418</v>
       </c>
       <c r="D64" t="n">
-        <v>1.569675996338078</v>
+        <v>1.51342379705555</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.89525062284815</v>
+        <v>26.92081369013441</v>
       </c>
       <c r="D65" t="n">
-        <v>1.723566317363657</v>
+        <v>1.671548005030881</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.03054734124465</v>
+        <v>26.00051896118776</v>
       </c>
       <c r="D66" t="n">
-        <v>1.578903000040214</v>
+        <v>2.148739768747116</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.01996932313627</v>
+        <v>25.24475742499975</v>
       </c>
       <c r="D67" t="n">
-        <v>1.636818614623181</v>
+        <v>1.733091884832787</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.05263023707821</v>
+        <v>23.71469688356531</v>
       </c>
       <c r="D68" t="n">
-        <v>1.931701915753955</v>
+        <v>1.818050298662686</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.93422378135669</v>
+        <v>23.03775067815146</v>
       </c>
       <c r="D69" t="n">
-        <v>1.694962661942818</v>
+        <v>1.760426806990682</v>
       </c>
     </row>
   </sheetData>
